--- a/inflation.xlsx
+++ b/inflation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sagar\Documents\GitHub\Starbucks-Profit-Margins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{039FD391-6964-4DBD-A58D-52EF73A42CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D080FF-65EC-42D5-BCC1-DCAA13A809D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{EA526A09-4238-405D-AB41-07C28F875F21}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Inflation_Average</t>
+    <t>Average_Inflation_Rate(%)</t>
   </si>
 </sst>
 </file>
@@ -411,12 +411,12 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
